--- a/report/基本設計書/基本設計書_I0001_ログイン画面.xlsx
+++ b/report/基本設計書/基本設計書_I0001_ログイン画面.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="4575" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
-    <sheet name="画面レイアウト" sheetId="4" r:id="rId1"/>
-    <sheet name="項目定義" sheetId="3" r:id="rId2"/>
-    <sheet name="イベント一覧" sheetId="18" r:id="rId3"/>
-    <sheet name="入力チェック一覧" sheetId="19" r:id="rId4"/>
+    <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
+    <sheet name="画面レイアウト" sheetId="4" r:id="rId2"/>
+    <sheet name="項目定義" sheetId="3" r:id="rId3"/>
+    <sheet name="イベント一覧" sheetId="18" r:id="rId4"/>
+    <sheet name="入力チェック一覧" sheetId="19" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">イベント一覧!$A$1:$AG$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">画面レイアウト!$A$1:$AG$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">項目定義!$A$1:$AG$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">入力チェック一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -495,12 +497,47 @@
     <t>ID入力欄</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>NO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正日</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>修正シート</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>修正者</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>修正内容</t>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,6 +594,21 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1009,12 +1061,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1339,9 +1394,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1376,7 +1516,7 @@
         <xdr:cNvPr id="10" name="그림 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7A7904BF-E81B-45D3-AAA0-E7C2921788EA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7904BF-E81B-45D3-AAA0-E7C2921788EA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1419,7 +1559,7 @@
         <xdr:cNvPr id="5" name="타원 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1495,7 +1635,7 @@
         <xdr:cNvPr id="6" name="타원 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1711,7 @@
         <xdr:cNvPr id="7" name="타원 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1787,7 @@
         <xdr:cNvPr id="8" name="타원 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1723,7 +1863,7 @@
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1939,7 @@
         <xdr:cNvPr id="14" name="타원 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +2015,7 @@
         <xdr:cNvPr id="15" name="타원 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{728735AB-2DC3-4773-BE4F-4B48364FBCCF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728735AB-2DC3-4773-BE4F-4B48364FBCCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2233,9 +2373,801 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB25"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="4" style="108" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="108"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
+      <c r="A2" s="109" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="111" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="112" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="114"/>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="115">
+        <v>1</v>
+      </c>
+      <c r="B3" s="116"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="121"/>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="122">
+        <v>2</v>
+      </c>
+      <c r="B4" s="123"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="124"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
+      <c r="M4" s="118"/>
+      <c r="N4" s="118"/>
+      <c r="O4" s="118"/>
+      <c r="P4" s="118"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="118"/>
+      <c r="S4" s="118"/>
+      <c r="T4" s="118"/>
+      <c r="U4" s="118"/>
+      <c r="V4" s="118"/>
+      <c r="W4" s="118"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="118"/>
+      <c r="Z4" s="118"/>
+      <c r="AA4" s="118"/>
+      <c r="AB4" s="125"/>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="115">
+        <v>3</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+      <c r="P5" s="118"/>
+      <c r="Q5" s="118"/>
+      <c r="R5" s="118"/>
+      <c r="S5" s="118"/>
+      <c r="T5" s="118"/>
+      <c r="U5" s="118"/>
+      <c r="V5" s="118"/>
+      <c r="W5" s="118"/>
+      <c r="X5" s="118"/>
+      <c r="Y5" s="118"/>
+      <c r="Z5" s="118"/>
+      <c r="AA5" s="118"/>
+      <c r="AB5" s="125"/>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="122">
+        <v>4</v>
+      </c>
+      <c r="B6" s="126"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="128"/>
+      <c r="G6" s="127"/>
+      <c r="H6" s="120"/>
+      <c r="I6" s="128"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="120"/>
+      <c r="L6" s="120"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
+      <c r="S6" s="120"/>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="120"/>
+      <c r="W6" s="120"/>
+      <c r="X6" s="120"/>
+      <c r="Y6" s="120"/>
+      <c r="Z6" s="120"/>
+      <c r="AA6" s="120"/>
+      <c r="AB6" s="121"/>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="115">
+        <v>5</v>
+      </c>
+      <c r="B7" s="123"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
+      <c r="M7" s="118"/>
+      <c r="N7" s="118"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="118"/>
+      <c r="T7" s="118"/>
+      <c r="U7" s="118"/>
+      <c r="V7" s="118"/>
+      <c r="W7" s="118"/>
+      <c r="X7" s="118"/>
+      <c r="Y7" s="118"/>
+      <c r="Z7" s="120"/>
+      <c r="AA7" s="120"/>
+      <c r="AB7" s="121"/>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="122">
+        <v>6</v>
+      </c>
+      <c r="B8" s="123"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="118"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="118"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+      <c r="P8" s="118"/>
+      <c r="Q8" s="118"/>
+      <c r="R8" s="118"/>
+      <c r="S8" s="118"/>
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="118"/>
+      <c r="W8" s="118"/>
+      <c r="X8" s="118"/>
+      <c r="Y8" s="118"/>
+      <c r="Z8" s="118"/>
+      <c r="AA8" s="118"/>
+      <c r="AB8" s="125"/>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="115">
+        <v>7</v>
+      </c>
+      <c r="B9" s="126"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
+      <c r="Q9" s="120"/>
+      <c r="R9" s="120"/>
+      <c r="S9" s="120"/>
+      <c r="T9" s="120"/>
+      <c r="U9" s="120"/>
+      <c r="V9" s="120"/>
+      <c r="W9" s="120"/>
+      <c r="X9" s="120"/>
+      <c r="Y9" s="120"/>
+      <c r="Z9" s="120"/>
+      <c r="AA9" s="120"/>
+      <c r="AB9" s="121"/>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="122">
+        <v>8</v>
+      </c>
+      <c r="B10" s="126"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
+      <c r="S10" s="120"/>
+      <c r="T10" s="120"/>
+      <c r="U10" s="120"/>
+      <c r="V10" s="120"/>
+      <c r="W10" s="120"/>
+      <c r="X10" s="120"/>
+      <c r="Y10" s="120"/>
+      <c r="Z10" s="120"/>
+      <c r="AA10" s="120"/>
+      <c r="AB10" s="121"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="115">
+        <v>9</v>
+      </c>
+      <c r="B11" s="126"/>
+      <c r="C11" s="127"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
+      <c r="Q11" s="120"/>
+      <c r="R11" s="120"/>
+      <c r="S11" s="120"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="120"/>
+      <c r="V11" s="120"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="120"/>
+      <c r="Y11" s="120"/>
+      <c r="Z11" s="120"/>
+      <c r="AA11" s="120"/>
+      <c r="AB11" s="121"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="122">
+        <v>10</v>
+      </c>
+      <c r="B12" s="126"/>
+      <c r="C12" s="127"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
+      <c r="Q12" s="120"/>
+      <c r="R12" s="120"/>
+      <c r="S12" s="120"/>
+      <c r="T12" s="120"/>
+      <c r="U12" s="120"/>
+      <c r="V12" s="120"/>
+      <c r="W12" s="120"/>
+      <c r="X12" s="120"/>
+      <c r="Y12" s="120"/>
+      <c r="Z12" s="120"/>
+      <c r="AA12" s="120"/>
+      <c r="AB12" s="121"/>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="115">
+        <v>11</v>
+      </c>
+      <c r="B13" s="126"/>
+      <c r="C13" s="127"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
+      <c r="Q13" s="120"/>
+      <c r="R13" s="120"/>
+      <c r="S13" s="120"/>
+      <c r="T13" s="120"/>
+      <c r="U13" s="120"/>
+      <c r="V13" s="120"/>
+      <c r="W13" s="120"/>
+      <c r="X13" s="120"/>
+      <c r="Y13" s="120"/>
+      <c r="Z13" s="120"/>
+      <c r="AA13" s="120"/>
+      <c r="AB13" s="121"/>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="122">
+        <v>12</v>
+      </c>
+      <c r="B14" s="126"/>
+      <c r="C14" s="127"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="120"/>
+      <c r="R14" s="120"/>
+      <c r="S14" s="120"/>
+      <c r="T14" s="120"/>
+      <c r="U14" s="120"/>
+      <c r="V14" s="120"/>
+      <c r="W14" s="120"/>
+      <c r="X14" s="120"/>
+      <c r="Y14" s="120"/>
+      <c r="Z14" s="120"/>
+      <c r="AA14" s="120"/>
+      <c r="AB14" s="121"/>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="115">
+        <v>13</v>
+      </c>
+      <c r="B15" s="126"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="120"/>
+      <c r="S15" s="120"/>
+      <c r="T15" s="120"/>
+      <c r="U15" s="120"/>
+      <c r="V15" s="120"/>
+      <c r="W15" s="120"/>
+      <c r="X15" s="120"/>
+      <c r="Y15" s="120"/>
+      <c r="Z15" s="120"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="121"/>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="122">
+        <v>14</v>
+      </c>
+      <c r="B16" s="126"/>
+      <c r="C16" s="127"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
+      <c r="Q16" s="120"/>
+      <c r="R16" s="120"/>
+      <c r="S16" s="120"/>
+      <c r="T16" s="120"/>
+      <c r="U16" s="120"/>
+      <c r="V16" s="120"/>
+      <c r="W16" s="120"/>
+      <c r="X16" s="120"/>
+      <c r="Y16" s="120"/>
+      <c r="Z16" s="120"/>
+      <c r="AA16" s="120"/>
+      <c r="AB16" s="121"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="115">
+        <v>15</v>
+      </c>
+      <c r="B17" s="126"/>
+      <c r="C17" s="127"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
+      <c r="T17" s="120"/>
+      <c r="U17" s="120"/>
+      <c r="V17" s="120"/>
+      <c r="W17" s="120"/>
+      <c r="X17" s="120"/>
+      <c r="Y17" s="120"/>
+      <c r="Z17" s="120"/>
+      <c r="AA17" s="120"/>
+      <c r="AB17" s="121"/>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="122">
+        <v>16</v>
+      </c>
+      <c r="B18" s="126"/>
+      <c r="C18" s="127"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
+      <c r="Q18" s="120"/>
+      <c r="R18" s="120"/>
+      <c r="S18" s="120"/>
+      <c r="T18" s="120"/>
+      <c r="U18" s="120"/>
+      <c r="V18" s="120"/>
+      <c r="W18" s="120"/>
+      <c r="X18" s="120"/>
+      <c r="Y18" s="120"/>
+      <c r="Z18" s="120"/>
+      <c r="AA18" s="120"/>
+      <c r="AB18" s="121"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="115">
+        <v>17</v>
+      </c>
+      <c r="B19" s="126"/>
+      <c r="C19" s="127"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
+      <c r="Q19" s="120"/>
+      <c r="R19" s="120"/>
+      <c r="S19" s="120"/>
+      <c r="T19" s="120"/>
+      <c r="U19" s="120"/>
+      <c r="V19" s="120"/>
+      <c r="W19" s="120"/>
+      <c r="X19" s="120"/>
+      <c r="Y19" s="120"/>
+      <c r="Z19" s="120"/>
+      <c r="AA19" s="120"/>
+      <c r="AB19" s="121"/>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" s="115">
+        <v>18</v>
+      </c>
+      <c r="B20" s="126"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
+      <c r="Q20" s="120"/>
+      <c r="R20" s="120"/>
+      <c r="S20" s="120"/>
+      <c r="T20" s="120"/>
+      <c r="U20" s="120"/>
+      <c r="V20" s="120"/>
+      <c r="W20" s="120"/>
+      <c r="X20" s="120"/>
+      <c r="Y20" s="120"/>
+      <c r="Z20" s="120"/>
+      <c r="AA20" s="120"/>
+      <c r="AB20" s="121"/>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" s="122">
+        <v>19</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
+      <c r="Q21" s="120"/>
+      <c r="R21" s="120"/>
+      <c r="S21" s="120"/>
+      <c r="T21" s="120"/>
+      <c r="U21" s="120"/>
+      <c r="V21" s="120"/>
+      <c r="W21" s="120"/>
+      <c r="X21" s="120"/>
+      <c r="Y21" s="120"/>
+      <c r="Z21" s="120"/>
+      <c r="AA21" s="120"/>
+      <c r="AB21" s="121"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" s="115">
+        <v>20</v>
+      </c>
+      <c r="B22" s="126"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120"/>
+      <c r="R22" s="120"/>
+      <c r="S22" s="120"/>
+      <c r="T22" s="120"/>
+      <c r="U22" s="120"/>
+      <c r="V22" s="120"/>
+      <c r="W22" s="120"/>
+      <c r="X22" s="120"/>
+      <c r="Y22" s="120"/>
+      <c r="Z22" s="120"/>
+      <c r="AA22" s="120"/>
+      <c r="AB22" s="121"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" s="115"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="127"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="120"/>
+      <c r="P23" s="120"/>
+      <c r="Q23" s="120"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="120"/>
+      <c r="U23" s="120"/>
+      <c r="V23" s="120"/>
+      <c r="W23" s="120"/>
+      <c r="X23" s="120"/>
+      <c r="Y23" s="120"/>
+      <c r="Z23" s="120"/>
+      <c r="AA23" s="120"/>
+      <c r="AB23" s="121"/>
+    </row>
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A24" s="129"/>
+      <c r="B24" s="130"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="132"/>
+      <c r="Q24" s="132"/>
+      <c r="R24" s="132"/>
+      <c r="S24" s="132"/>
+      <c r="T24" s="132"/>
+      <c r="U24" s="132"/>
+      <c r="V24" s="132"/>
+      <c r="W24" s="132"/>
+      <c r="X24" s="132"/>
+      <c r="Y24" s="132"/>
+      <c r="Z24" s="132"/>
+      <c r="AA24" s="132"/>
+      <c r="AB24" s="134"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="B25" s="135"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="135"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="135"/>
+      <c r="Q25" s="135"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2809,7 +3741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
@@ -3923,7 +4855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
@@ -4848,7 +5780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>

--- a/report/基本設計書/基本設計書_I0001_ログイン画面.xlsx
+++ b/report/基本設計書/基本設計書_I0001_ログイン画面.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dffsa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DD8E4-C30F-4523-906E-619614F3D540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -20,10 +21,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$24</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -307,10 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>login page</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>text</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -532,30 +529,46 @@
     <t>修正内容</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>2022-03-16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイアウト変更</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -597,17 +610,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1069,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1418,9 +1444,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1476,12 +1499,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1503,20 +1547,20 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>78292</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>219693</xdr:rowOff>
+      <xdr:colOff>27709</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>107309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="그림 9">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A7904BF-E81B-45D3-AAA0-E7C2921788EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1524,15 +1568,16 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect l="-52" t="9723"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="1120140"/>
-          <a:ext cx="6936292" cy="3755373"/>
+          <a:off x="1371600" y="5326381"/>
+          <a:ext cx="6885709" cy="3201028"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,23 +1588,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>116204</xdr:rowOff>
+      <xdr:rowOff>192404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>144779</xdr:rowOff>
+      <xdr:rowOff>220979</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="타원 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1567,7 +1612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1584960" y="1899284"/>
+          <a:off x="3482340" y="6181724"/>
           <a:ext cx="281940" cy="249555"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1619,23 +1664,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>226694</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>179069</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203834</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>3809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="타원 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1643,7 +1688,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1598294" y="2183129"/>
+          <a:off x="3495674" y="6435089"/>
           <a:ext cx="260986" cy="224791"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1695,23 +1740,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>62865</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>34944</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>240684</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>107718</xdr:rowOff>
+      <xdr:rowOff>168678</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="타원 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1719,7 +1764,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5000625" y="2537460"/>
+          <a:off x="4932045" y="6804660"/>
           <a:ext cx="246399" cy="237258"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1771,23 +1816,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>220980</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>117243</xdr:rowOff>
+      <xdr:rowOff>178203</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="타원 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1795,7 +1840,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4606290" y="2524125"/>
+          <a:off x="4377690" y="6791325"/>
           <a:ext cx="278130" cy="260118"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1847,23 +1892,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>122574</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198774</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>75333</xdr:rowOff>
+      <xdr:rowOff>98193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1871,7 +1916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2630805" y="1167765"/>
+          <a:off x="1609725" y="5396865"/>
           <a:ext cx="234969" cy="248688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1923,23 +1968,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>248304</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>79143</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>65424</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>155343</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="타원 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1992,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6048375" y="1171575"/>
+          <a:off x="4493895" y="5674995"/>
           <a:ext cx="234969" cy="248688"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -1999,23 +2044,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>52089</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>234969</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="타원 14">
+        <xdr:cNvPr id="21" name="타원 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{728735AB-2DC3-4773-BE4F-4B48364FBCCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2023,7 +2068,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3931920" y="4482465"/>
+          <a:off x="4114800" y="7766685"/>
           <a:ext cx="234969" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2372,41 +2417,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.75" style="108"/>
+    <col min="2" max="2" width="12.69921875" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.69921875" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
-    <row r="2" spans="1:28">
+    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="109" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="C2" s="111" t="s">
         <v>86</v>
-      </c>
-      <c r="C2" s="111" t="s">
-        <v>87</v>
       </c>
       <c r="D2" s="112"/>
       <c r="E2" s="112"/>
       <c r="F2" s="113"/>
       <c r="G2" s="111" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" s="112"/>
       <c r="I2" s="113"/>
       <c r="J2" s="112" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K2" s="112"/>
       <c r="L2" s="112"/>
@@ -2427,734 +2473,742 @@
       <c r="AA2" s="112"/>
       <c r="AB2" s="114"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="121"/>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="122">
+      <c r="B3" s="137">
+        <v>44636</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="141" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="119"/>
+      <c r="AB3" s="120"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A4" s="121">
         <v>2</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="124"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="118"/>
-      <c r="V4" s="118"/>
-      <c r="W4" s="118"/>
-      <c r="X4" s="118"/>
-      <c r="Y4" s="118"/>
-      <c r="Z4" s="118"/>
-      <c r="AA4" s="118"/>
-      <c r="AB4" s="125"/>
-    </row>
-    <row r="5" spans="1:28">
+      <c r="B4" s="122"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="124"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" s="115">
         <v>3</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="118"/>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="118"/>
-      <c r="Y5" s="118"/>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="125"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="122">
+      <c r="B5" s="122"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="118"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="117"/>
+      <c r="AA5" s="117"/>
+      <c r="AB5" s="124"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A6" s="121">
         <v>4</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="128"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120"/>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120"/>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120"/>
-      <c r="X6" s="120"/>
-      <c r="Y6" s="120"/>
-      <c r="Z6" s="120"/>
-      <c r="AA6" s="120"/>
-      <c r="AB6" s="121"/>
-    </row>
-    <row r="7" spans="1:28">
+      <c r="B6" s="125"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="127"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119"/>
+      <c r="O6" s="119"/>
+      <c r="P6" s="119"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="119"/>
+      <c r="S6" s="119"/>
+      <c r="T6" s="119"/>
+      <c r="U6" s="119"/>
+      <c r="V6" s="119"/>
+      <c r="W6" s="119"/>
+      <c r="X6" s="119"/>
+      <c r="Y6" s="119"/>
+      <c r="Z6" s="119"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="120"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" s="115">
         <v>5</v>
       </c>
-      <c r="B7" s="123"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
-      <c r="M7" s="118"/>
-      <c r="N7" s="118"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="118"/>
-      <c r="T7" s="118"/>
-      <c r="U7" s="118"/>
-      <c r="V7" s="118"/>
-      <c r="W7" s="118"/>
-      <c r="X7" s="118"/>
-      <c r="Y7" s="118"/>
-      <c r="Z7" s="120"/>
-      <c r="AA7" s="120"/>
-      <c r="AB7" s="121"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="122">
+      <c r="B7" s="122"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="119"/>
+      <c r="AA7" s="119"/>
+      <c r="AB7" s="120"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A8" s="121">
         <v>6</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
-      <c r="M8" s="118"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
-      <c r="P8" s="118"/>
-      <c r="Q8" s="118"/>
-      <c r="R8" s="118"/>
-      <c r="S8" s="118"/>
-      <c r="T8" s="118"/>
-      <c r="U8" s="118"/>
-      <c r="V8" s="118"/>
-      <c r="W8" s="118"/>
-      <c r="X8" s="118"/>
-      <c r="Y8" s="118"/>
-      <c r="Z8" s="118"/>
-      <c r="AA8" s="118"/>
-      <c r="AB8" s="125"/>
-    </row>
-    <row r="9" spans="1:28">
+      <c r="B8" s="122"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="124"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" s="115">
         <v>7</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="128"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="128"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
-      <c r="Q9" s="120"/>
-      <c r="R9" s="120"/>
-      <c r="S9" s="120"/>
-      <c r="T9" s="120"/>
-      <c r="U9" s="120"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="120"/>
-      <c r="X9" s="120"/>
-      <c r="Y9" s="120"/>
-      <c r="Z9" s="120"/>
-      <c r="AA9" s="120"/>
-      <c r="AB9" s="121"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="122">
+      <c r="B9" s="125"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="119"/>
+      <c r="P9" s="119"/>
+      <c r="Q9" s="119"/>
+      <c r="R9" s="119"/>
+      <c r="S9" s="119"/>
+      <c r="T9" s="119"/>
+      <c r="U9" s="119"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
+      <c r="X9" s="119"/>
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="119"/>
+      <c r="AA9" s="119"/>
+      <c r="AB9" s="120"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A10" s="121">
         <v>8</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="128"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="128"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
-      <c r="Q10" s="120"/>
-      <c r="R10" s="120"/>
-      <c r="S10" s="120"/>
-      <c r="T10" s="120"/>
-      <c r="U10" s="120"/>
-      <c r="V10" s="120"/>
-      <c r="W10" s="120"/>
-      <c r="X10" s="120"/>
-      <c r="Y10" s="120"/>
-      <c r="Z10" s="120"/>
-      <c r="AA10" s="120"/>
-      <c r="AB10" s="121"/>
-    </row>
-    <row r="11" spans="1:28">
+      <c r="B10" s="125"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="119"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="119"/>
+      <c r="N10" s="119"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="119"/>
+      <c r="Q10" s="119"/>
+      <c r="R10" s="119"/>
+      <c r="S10" s="119"/>
+      <c r="T10" s="119"/>
+      <c r="U10" s="119"/>
+      <c r="V10" s="119"/>
+      <c r="W10" s="119"/>
+      <c r="X10" s="119"/>
+      <c r="Y10" s="119"/>
+      <c r="Z10" s="119"/>
+      <c r="AA10" s="119"/>
+      <c r="AB10" s="120"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" s="115">
         <v>9</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
-      <c r="Q11" s="120"/>
-      <c r="R11" s="120"/>
-      <c r="S11" s="120"/>
-      <c r="T11" s="120"/>
-      <c r="U11" s="120"/>
-      <c r="V11" s="120"/>
-      <c r="W11" s="120"/>
-      <c r="X11" s="120"/>
-      <c r="Y11" s="120"/>
-      <c r="Z11" s="120"/>
-      <c r="AA11" s="120"/>
-      <c r="AB11" s="121"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="122">
+      <c r="B11" s="125"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="119"/>
+      <c r="N11" s="119"/>
+      <c r="O11" s="119"/>
+      <c r="P11" s="119"/>
+      <c r="Q11" s="119"/>
+      <c r="R11" s="119"/>
+      <c r="S11" s="119"/>
+      <c r="T11" s="119"/>
+      <c r="U11" s="119"/>
+      <c r="V11" s="119"/>
+      <c r="W11" s="119"/>
+      <c r="X11" s="119"/>
+      <c r="Y11" s="119"/>
+      <c r="Z11" s="119"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="120"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A12" s="121">
         <v>10</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="128"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
-      <c r="Q12" s="120"/>
-      <c r="R12" s="120"/>
-      <c r="S12" s="120"/>
-      <c r="T12" s="120"/>
-      <c r="U12" s="120"/>
-      <c r="V12" s="120"/>
-      <c r="W12" s="120"/>
-      <c r="X12" s="120"/>
-      <c r="Y12" s="120"/>
-      <c r="Z12" s="120"/>
-      <c r="AA12" s="120"/>
-      <c r="AB12" s="121"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="B12" s="125"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="119"/>
+      <c r="P12" s="119"/>
+      <c r="Q12" s="119"/>
+      <c r="R12" s="119"/>
+      <c r="S12" s="119"/>
+      <c r="T12" s="119"/>
+      <c r="U12" s="119"/>
+      <c r="V12" s="119"/>
+      <c r="W12" s="119"/>
+      <c r="X12" s="119"/>
+      <c r="Y12" s="119"/>
+      <c r="Z12" s="119"/>
+      <c r="AA12" s="119"/>
+      <c r="AB12" s="120"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" s="115">
         <v>11</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="128"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
-      <c r="Q13" s="120"/>
-      <c r="R13" s="120"/>
-      <c r="S13" s="120"/>
-      <c r="T13" s="120"/>
-      <c r="U13" s="120"/>
-      <c r="V13" s="120"/>
-      <c r="W13" s="120"/>
-      <c r="X13" s="120"/>
-      <c r="Y13" s="120"/>
-      <c r="Z13" s="120"/>
-      <c r="AA13" s="120"/>
-      <c r="AB13" s="121"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="122">
+      <c r="B13" s="125"/>
+      <c r="C13" s="126"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="119"/>
+      <c r="P13" s="119"/>
+      <c r="Q13" s="119"/>
+      <c r="R13" s="119"/>
+      <c r="S13" s="119"/>
+      <c r="T13" s="119"/>
+      <c r="U13" s="119"/>
+      <c r="V13" s="119"/>
+      <c r="W13" s="119"/>
+      <c r="X13" s="119"/>
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="119"/>
+      <c r="AA13" s="119"/>
+      <c r="AB13" s="120"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A14" s="121">
         <v>12</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
-      <c r="Q14" s="120"/>
-      <c r="R14" s="120"/>
-      <c r="S14" s="120"/>
-      <c r="T14" s="120"/>
-      <c r="U14" s="120"/>
-      <c r="V14" s="120"/>
-      <c r="W14" s="120"/>
-      <c r="X14" s="120"/>
-      <c r="Y14" s="120"/>
-      <c r="Z14" s="120"/>
-      <c r="AA14" s="120"/>
-      <c r="AB14" s="121"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="B14" s="125"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="119"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="M14" s="119"/>
+      <c r="N14" s="119"/>
+      <c r="O14" s="119"/>
+      <c r="P14" s="119"/>
+      <c r="Q14" s="119"/>
+      <c r="R14" s="119"/>
+      <c r="S14" s="119"/>
+      <c r="T14" s="119"/>
+      <c r="U14" s="119"/>
+      <c r="V14" s="119"/>
+      <c r="W14" s="119"/>
+      <c r="X14" s="119"/>
+      <c r="Y14" s="119"/>
+      <c r="Z14" s="119"/>
+      <c r="AA14" s="119"/>
+      <c r="AB14" s="120"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" s="115">
         <v>13</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
-      <c r="Q15" s="120"/>
-      <c r="R15" s="120"/>
-      <c r="S15" s="120"/>
-      <c r="T15" s="120"/>
-      <c r="U15" s="120"/>
-      <c r="V15" s="120"/>
-      <c r="W15" s="120"/>
-      <c r="X15" s="120"/>
-      <c r="Y15" s="120"/>
-      <c r="Z15" s="120"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="121"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="122">
+      <c r="B15" s="125"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="119"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="119"/>
+      <c r="N15" s="119"/>
+      <c r="O15" s="119"/>
+      <c r="P15" s="119"/>
+      <c r="Q15" s="119"/>
+      <c r="R15" s="119"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="119"/>
+      <c r="U15" s="119"/>
+      <c r="V15" s="119"/>
+      <c r="W15" s="119"/>
+      <c r="X15" s="119"/>
+      <c r="Y15" s="119"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="119"/>
+      <c r="AB15" s="120"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A16" s="121">
         <v>14</v>
       </c>
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
-      <c r="Q16" s="120"/>
-      <c r="R16" s="120"/>
-      <c r="S16" s="120"/>
-      <c r="T16" s="120"/>
-      <c r="U16" s="120"/>
-      <c r="V16" s="120"/>
-      <c r="W16" s="120"/>
-      <c r="X16" s="120"/>
-      <c r="Y16" s="120"/>
-      <c r="Z16" s="120"/>
-      <c r="AA16" s="120"/>
-      <c r="AB16" s="121"/>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="B16" s="125"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119"/>
+      <c r="AB16" s="120"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" s="115">
         <v>15</v>
       </c>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="120"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
-      <c r="Q17" s="120"/>
-      <c r="R17" s="120"/>
-      <c r="S17" s="120"/>
-      <c r="T17" s="120"/>
-      <c r="U17" s="120"/>
-      <c r="V17" s="120"/>
-      <c r="W17" s="120"/>
-      <c r="X17" s="120"/>
-      <c r="Y17" s="120"/>
-      <c r="Z17" s="120"/>
-      <c r="AA17" s="120"/>
-      <c r="AB17" s="121"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="122">
+      <c r="B17" s="125"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="119"/>
+      <c r="T17" s="119"/>
+      <c r="U17" s="119"/>
+      <c r="V17" s="119"/>
+      <c r="W17" s="119"/>
+      <c r="X17" s="119"/>
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="119"/>
+      <c r="AA17" s="119"/>
+      <c r="AB17" s="120"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A18" s="121">
         <v>16</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="120"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
-      <c r="Q18" s="120"/>
-      <c r="R18" s="120"/>
-      <c r="S18" s="120"/>
-      <c r="T18" s="120"/>
-      <c r="U18" s="120"/>
-      <c r="V18" s="120"/>
-      <c r="W18" s="120"/>
-      <c r="X18" s="120"/>
-      <c r="Y18" s="120"/>
-      <c r="Z18" s="120"/>
-      <c r="AA18" s="120"/>
-      <c r="AB18" s="121"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="B18" s="125"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="119"/>
+      <c r="T18" s="119"/>
+      <c r="U18" s="119"/>
+      <c r="V18" s="119"/>
+      <c r="W18" s="119"/>
+      <c r="X18" s="119"/>
+      <c r="Y18" s="119"/>
+      <c r="Z18" s="119"/>
+      <c r="AA18" s="119"/>
+      <c r="AB18" s="120"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" s="115">
         <v>17</v>
       </c>
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="120"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="127"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
-      <c r="Q19" s="120"/>
-      <c r="R19" s="120"/>
-      <c r="S19" s="120"/>
-      <c r="T19" s="120"/>
-      <c r="U19" s="120"/>
-      <c r="V19" s="120"/>
-      <c r="W19" s="120"/>
-      <c r="X19" s="120"/>
-      <c r="Y19" s="120"/>
-      <c r="Z19" s="120"/>
-      <c r="AA19" s="120"/>
-      <c r="AB19" s="121"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="B19" s="125"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="119"/>
+      <c r="T19" s="119"/>
+      <c r="U19" s="119"/>
+      <c r="V19" s="119"/>
+      <c r="W19" s="119"/>
+      <c r="X19" s="119"/>
+      <c r="Y19" s="119"/>
+      <c r="Z19" s="119"/>
+      <c r="AA19" s="119"/>
+      <c r="AB19" s="120"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" s="115">
         <v>18</v>
       </c>
-      <c r="B20" s="126"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="120"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="127"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
-      <c r="Q20" s="120"/>
-      <c r="R20" s="120"/>
-      <c r="S20" s="120"/>
-      <c r="T20" s="120"/>
-      <c r="U20" s="120"/>
-      <c r="V20" s="120"/>
-      <c r="W20" s="120"/>
-      <c r="X20" s="120"/>
-      <c r="Y20" s="120"/>
-      <c r="Z20" s="120"/>
-      <c r="AA20" s="120"/>
-      <c r="AB20" s="121"/>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="122">
+      <c r="B20" s="125"/>
+      <c r="C20" s="126"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="119"/>
+      <c r="T20" s="119"/>
+      <c r="U20" s="119"/>
+      <c r="V20" s="119"/>
+      <c r="W20" s="119"/>
+      <c r="X20" s="119"/>
+      <c r="Y20" s="119"/>
+      <c r="Z20" s="119"/>
+      <c r="AA20" s="119"/>
+      <c r="AB20" s="120"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A21" s="121">
         <v>19</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
-      <c r="Q21" s="120"/>
-      <c r="R21" s="120"/>
-      <c r="S21" s="120"/>
-      <c r="T21" s="120"/>
-      <c r="U21" s="120"/>
-      <c r="V21" s="120"/>
-      <c r="W21" s="120"/>
-      <c r="X21" s="120"/>
-      <c r="Y21" s="120"/>
-      <c r="Z21" s="120"/>
-      <c r="AA21" s="120"/>
-      <c r="AB21" s="121"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="B21" s="125"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="119"/>
+      <c r="T21" s="119"/>
+      <c r="U21" s="119"/>
+      <c r="V21" s="119"/>
+      <c r="W21" s="119"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="119"/>
+      <c r="AA21" s="119"/>
+      <c r="AB21" s="120"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" s="115">
         <v>20</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="127"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
-      <c r="Q22" s="120"/>
-      <c r="R22" s="120"/>
-      <c r="S22" s="120"/>
-      <c r="T22" s="120"/>
-      <c r="U22" s="120"/>
-      <c r="V22" s="120"/>
-      <c r="W22" s="120"/>
-      <c r="X22" s="120"/>
-      <c r="Y22" s="120"/>
-      <c r="Z22" s="120"/>
-      <c r="AA22" s="120"/>
-      <c r="AB22" s="121"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="119"/>
+      <c r="P22" s="119"/>
+      <c r="Q22" s="119"/>
+      <c r="R22" s="119"/>
+      <c r="S22" s="119"/>
+      <c r="T22" s="119"/>
+      <c r="U22" s="119"/>
+      <c r="V22" s="119"/>
+      <c r="W22" s="119"/>
+      <c r="X22" s="119"/>
+      <c r="Y22" s="119"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="120"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" s="115"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="120"/>
-      <c r="M23" s="120"/>
-      <c r="N23" s="120"/>
-      <c r="O23" s="120"/>
-      <c r="P23" s="120"/>
-      <c r="Q23" s="120"/>
-      <c r="R23" s="120"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="120"/>
-      <c r="U23" s="120"/>
-      <c r="V23" s="120"/>
-      <c r="W23" s="120"/>
-      <c r="X23" s="120"/>
-      <c r="Y23" s="120"/>
-      <c r="Z23" s="120"/>
-      <c r="AA23" s="120"/>
-      <c r="AB23" s="121"/>
-    </row>
-    <row r="24" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A24" s="129"/>
-      <c r="B24" s="130"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="132"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="133"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="132"/>
-      <c r="Q24" s="132"/>
-      <c r="R24" s="132"/>
-      <c r="S24" s="132"/>
-      <c r="T24" s="132"/>
-      <c r="U24" s="132"/>
-      <c r="V24" s="132"/>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="132"/>
-      <c r="Z24" s="132"/>
-      <c r="AA24" s="132"/>
-      <c r="AB24" s="134"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="135"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="135"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="126"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="M23" s="119"/>
+      <c r="N23" s="119"/>
+      <c r="O23" s="119"/>
+      <c r="P23" s="119"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="119"/>
+      <c r="U23" s="119"/>
+      <c r="V23" s="119"/>
+      <c r="W23" s="119"/>
+      <c r="X23" s="119"/>
+      <c r="Y23" s="119"/>
+      <c r="Z23" s="119"/>
+      <c r="AA23" s="119"/>
+      <c r="AB23" s="120"/>
+    </row>
+    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="128"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="130"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="131"/>
+      <c r="M24" s="131"/>
+      <c r="N24" s="131"/>
+      <c r="O24" s="131"/>
+      <c r="P24" s="131"/>
+      <c r="Q24" s="131"/>
+      <c r="R24" s="131"/>
+      <c r="S24" s="131"/>
+      <c r="T24" s="131"/>
+      <c r="U24" s="131"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="131"/>
+      <c r="X24" s="131"/>
+      <c r="Y24" s="131"/>
+      <c r="Z24" s="131"/>
+      <c r="AA24" s="131"/>
+      <c r="AB24" s="133"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="134"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="134"/>
+      <c r="O25" s="134"/>
+      <c r="P25" s="134"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="134"/>
+      <c r="S25" s="134"/>
+      <c r="T25" s="134"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="134"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="134"/>
+      <c r="Y25" s="134"/>
+      <c r="Z25" s="134"/>
+      <c r="AA25" s="134"/>
+      <c r="AB25" s="134"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3164,20 +3218,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.75" style="11"/>
+    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3186,7 +3241,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -3203,7 +3258,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -3215,7 +3270,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -3223,13 +3278,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="19.5" thickBot="1">
+    <row r="2" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -3242,7 +3297,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -3252,8 +3307,8 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="18" t="s">
-        <v>45</v>
+      <c r="S2" s="135" t="s">
+        <v>89</v>
       </c>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
@@ -3264,8 +3319,8 @@
         <v>4</v>
       </c>
       <c r="Z2" s="13"/>
-      <c r="AA2" s="20" t="s">
-        <v>46</v>
+      <c r="AA2" s="136" t="s">
+        <v>45</v>
       </c>
       <c r="AB2" s="14"/>
       <c r="AC2" s="14"/>
@@ -3273,8 +3328,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="21"/>
     </row>
-    <row r="3" spans="1:33" ht="19.5" thickBot="1"/>
-    <row r="4" spans="1:33">
+    <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -3308,7 +3363,7 @@
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>17</v>
@@ -3344,7 +3399,7 @@
       <c r="AE5" s="26"/>
       <c r="AF5" s="27"/>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -3378,7 +3433,7 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="27"/>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -3412,7 +3467,7 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="27"/>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -3446,7 +3501,7 @@
       <c r="AE8" s="26"/>
       <c r="AF8" s="27"/>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3480,7 +3535,7 @@
       <c r="AE9" s="26"/>
       <c r="AF9" s="27"/>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -3514,7 +3569,7 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="27"/>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -3548,7 +3603,7 @@
       <c r="AE11" s="26"/>
       <c r="AF11" s="27"/>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -3582,7 +3637,7 @@
       <c r="AE12" s="26"/>
       <c r="AF12" s="27"/>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -3616,7 +3671,7 @@
       <c r="AE13" s="26"/>
       <c r="AF13" s="27"/>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -3650,55 +3705,55 @@
       <c r="AE14" s="26"/>
       <c r="AF14" s="27"/>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="AG15" s="25"/>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="AG16" s="25"/>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="AG17" s="25"/>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="AG18" s="25"/>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="AG19" s="25"/>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="AG20" s="25"/>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="AG21" s="25"/>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="AG22" s="25"/>
     </row>
-    <row r="23" spans="1:33" ht="19.5" thickBot="1">
+    <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="30"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3742,33 +3797,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="3.625" style="45"/>
+    <col min="1" max="1" width="3.69921875" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="3.59765625" style="45"/>
     <col min="27" max="27" width="4" style="45" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.625" style="45"/>
-    <col min="29" max="29" width="3.75" style="45" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.625" style="45"/>
+    <col min="28" max="28" width="3.59765625" style="45"/>
+    <col min="29" max="29" width="3.69921875" style="45" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.59765625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="81" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
       <c r="D1" s="82"/>
       <c r="E1" s="83"/>
       <c r="F1" s="84" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
@@ -3785,7 +3840,7 @@
       </c>
       <c r="R1" s="88"/>
       <c r="S1" s="89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T1" s="85"/>
       <c r="U1" s="85"/>
@@ -3797,7 +3852,7 @@
       </c>
       <c r="Z1" s="88"/>
       <c r="AA1" s="89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AB1" s="85"/>
       <c r="AC1" s="85"/>
@@ -3805,13 +3860,13 @@
       <c r="AE1" s="85"/>
       <c r="AF1" s="90"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="91" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="93" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="94"/>
@@ -3824,7 +3879,7 @@
       </c>
       <c r="K2" s="92"/>
       <c r="L2" s="95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="95"/>
       <c r="N2" s="95"/>
@@ -3835,7 +3890,7 @@
       </c>
       <c r="R2" s="92"/>
       <c r="S2" s="97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T2" s="93"/>
       <c r="U2" s="93"/>
@@ -3847,7 +3902,7 @@
       </c>
       <c r="Z2" s="92"/>
       <c r="AA2" s="99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB2" s="93"/>
       <c r="AC2" s="93"/>
@@ -3855,8 +3910,8 @@
       <c r="AE2" s="93"/>
       <c r="AF2" s="100"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="101" t="s">
         <v>5</v>
       </c>
@@ -3912,18 +3967,18 @@
       </c>
       <c r="AF4" s="105"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36">
         <v>1</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -3968,18 +4023,18 @@
       </c>
       <c r="AF5" s="44"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="36">
         <v>2</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
       <c r="E6" s="38"/>
       <c r="F6" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="40"/>
@@ -3995,7 +4050,7 @@
       <c r="N6" s="43"/>
       <c r="O6" s="40"/>
       <c r="P6" s="42" t="s">
-        <v>41</v>
+        <v>92</v>
       </c>
       <c r="Q6" s="40"/>
       <c r="R6" s="40"/>
@@ -4020,16 +4075,16 @@
       </c>
       <c r="AD6" s="40"/>
       <c r="AE6" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AF6" s="44"/>
     </row>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="36">
         <v>3</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -4045,7 +4100,7 @@
       </c>
       <c r="K7" s="40"/>
       <c r="L7" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
@@ -4057,7 +4112,7 @@
       <c r="R7" s="40"/>
       <c r="S7" s="40"/>
       <c r="T7" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U7" s="40"/>
       <c r="V7" s="40"/>
@@ -4072,7 +4127,7 @@
       </c>
       <c r="AB7" s="41"/>
       <c r="AC7" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD7" s="40"/>
       <c r="AE7" s="42" t="s">
@@ -4080,7 +4135,7 @@
       </c>
       <c r="AF7" s="44"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="46">
         <v>4</v>
       </c>
@@ -4091,7 +4146,7 @@
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
       <c r="F8" s="39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="43"/>
@@ -4113,7 +4168,7 @@
       <c r="R8" s="43"/>
       <c r="S8" s="43"/>
       <c r="T8" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U8" s="43"/>
       <c r="V8" s="43"/>
@@ -4136,18 +4191,18 @@
       </c>
       <c r="AF8" s="49"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="46">
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
       <c r="F9" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
@@ -4174,7 +4229,7 @@
       <c r="U9" s="43"/>
       <c r="V9" s="43"/>
       <c r="W9" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X9" s="51"/>
       <c r="Y9" s="51"/>
@@ -4188,11 +4243,11 @@
       </c>
       <c r="AD9" s="43"/>
       <c r="AE9" s="39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" s="49"/>
     </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="46">
         <v>6</v>
       </c>
@@ -4203,7 +4258,7 @@
       <c r="D10" s="47"/>
       <c r="E10" s="47"/>
       <c r="F10" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="43"/>
@@ -4230,7 +4285,7 @@
       <c r="U10" s="43"/>
       <c r="V10" s="43"/>
       <c r="W10" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X10" s="51"/>
       <c r="Y10" s="51"/>
@@ -4244,11 +4299,11 @@
       </c>
       <c r="AD10" s="43"/>
       <c r="AE10" s="39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF10" s="49"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="46">
         <v>7</v>
       </c>
@@ -4259,7 +4314,7 @@
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
       <c r="F11" s="39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
@@ -4275,7 +4330,7 @@
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
       <c r="P11" s="39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="43"/>
@@ -4304,7 +4359,7 @@
       </c>
       <c r="AF11" s="49"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" customHeight="1">
+    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="46"/>
       <c r="B12" s="52"/>
       <c r="C12" s="47"/>
@@ -4338,7 +4393,7 @@
       <c r="AE12" s="39"/>
       <c r="AF12" s="49"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="46"/>
       <c r="B13" s="52"/>
       <c r="C13" s="47"/>
@@ -4372,7 +4427,7 @@
       <c r="AE13" s="39"/>
       <c r="AF13" s="49"/>
     </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="46"/>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
@@ -4406,7 +4461,7 @@
       <c r="AE14" s="42"/>
       <c r="AF14" s="53"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="46"/>
       <c r="B15" s="37"/>
       <c r="C15" s="38"/>
@@ -4440,7 +4495,7 @@
       <c r="AE15" s="42"/>
       <c r="AF15" s="53"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" customHeight="1">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="46"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -4474,7 +4529,7 @@
       <c r="AE16" s="42"/>
       <c r="AF16" s="53"/>
     </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1">
+    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="46"/>
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
@@ -4508,7 +4563,7 @@
       <c r="AE17" s="42"/>
       <c r="AF17" s="53"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1">
+    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="46"/>
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
@@ -4542,7 +4597,7 @@
       <c r="AE18" s="42"/>
       <c r="AF18" s="53"/>
     </row>
-    <row r="19" spans="1:32" ht="15.75" customHeight="1">
+    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="46"/>
       <c r="B19" s="52"/>
       <c r="C19" s="47"/>
@@ -4576,7 +4631,7 @@
       <c r="AE19" s="42"/>
       <c r="AF19" s="54"/>
     </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1">
+    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="46"/>
       <c r="B20" s="52"/>
       <c r="C20" s="47"/>
@@ -4610,7 +4665,7 @@
       <c r="AE20" s="42"/>
       <c r="AF20" s="54"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="46"/>
       <c r="B21" s="52"/>
       <c r="C21" s="47"/>
@@ -4644,7 +4699,7 @@
       <c r="AE21" s="42"/>
       <c r="AF21" s="54"/>
     </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="46"/>
       <c r="B22" s="52"/>
       <c r="C22" s="47"/>
@@ -4678,7 +4733,7 @@
       <c r="AE22" s="42"/>
       <c r="AF22" s="54"/>
     </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1">
+    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="46"/>
       <c r="B23" s="52"/>
       <c r="C23" s="47"/>
@@ -4712,7 +4767,7 @@
       <c r="AE23" s="42"/>
       <c r="AF23" s="54"/>
     </row>
-    <row r="24" spans="1:32" ht="15.75" customHeight="1">
+    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="46"/>
       <c r="B24" s="52"/>
       <c r="C24" s="47"/>
@@ -4746,7 +4801,7 @@
       <c r="AE24" s="42"/>
       <c r="AF24" s="54"/>
     </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="46"/>
       <c r="B25" s="52"/>
       <c r="C25" s="47"/>
@@ -4780,7 +4835,7 @@
       <c r="AE25" s="42"/>
       <c r="AF25" s="54"/>
     </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="46"/>
       <c r="B26" s="52"/>
       <c r="C26" s="47"/>
@@ -4814,7 +4869,7 @@
       <c r="AE26" s="39"/>
       <c r="AF26" s="54"/>
     </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1">
+    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="106"/>
       <c r="B27" s="106"/>
       <c r="C27" s="106"/>
@@ -4856,20 +4911,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.75" style="11"/>
+    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4878,7 +4931,7 @@
       <c r="D1" s="34"/>
       <c r="E1" s="8"/>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -4895,7 +4948,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -4907,7 +4960,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -4915,13 +4968,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="19.5" thickBot="1">
+    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -4934,7 +4987,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -4961,8 +5014,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="21"/>
     </row>
-    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
-    <row r="4" spans="1:32">
+    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -5006,7 +5059,7 @@
       <c r="AE4" s="34"/>
       <c r="AF4" s="35"/>
     </row>
-    <row r="5" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="5" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -5017,21 +5070,21 @@
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57"/>
       <c r="K5" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="59"/>
       <c r="M5" s="59"/>
       <c r="N5" s="59"/>
       <c r="O5" s="60"/>
       <c r="P5" s="39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
@@ -5050,32 +5103,32 @@
       <c r="AE5" s="43"/>
       <c r="AF5" s="49"/>
     </row>
-    <row r="6" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="6" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="46">
         <v>2</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
       <c r="E6" s="70"/>
       <c r="F6" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="47"/>
       <c r="H6" s="47"/>
       <c r="I6" s="47"/>
       <c r="J6" s="57"/>
       <c r="K6" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L6" s="43"/>
       <c r="M6" s="43"/>
       <c r="N6" s="43"/>
       <c r="O6" s="43"/>
       <c r="P6" s="39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="43"/>
       <c r="R6" s="43"/>
@@ -5094,7 +5147,7 @@
       <c r="AE6" s="43"/>
       <c r="AF6" s="49"/>
     </row>
-    <row r="7" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="46"/>
       <c r="B7" s="39"/>
       <c r="C7" s="43"/>
@@ -5128,7 +5181,7 @@
       <c r="AE7" s="43"/>
       <c r="AF7" s="49"/>
     </row>
-    <row r="8" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="36"/>
       <c r="B8" s="71"/>
       <c r="C8" s="40"/>
@@ -5162,7 +5215,7 @@
       <c r="AE8" s="40"/>
       <c r="AF8" s="44"/>
     </row>
-    <row r="9" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36"/>
       <c r="B9" s="71"/>
       <c r="C9" s="40"/>
@@ -5196,7 +5249,7 @@
       <c r="AE9" s="40"/>
       <c r="AF9" s="44"/>
     </row>
-    <row r="10" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="10" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="36"/>
       <c r="B10" s="71"/>
       <c r="C10" s="40"/>
@@ -5230,7 +5283,7 @@
       <c r="AE10" s="40"/>
       <c r="AF10" s="49"/>
     </row>
-    <row r="11" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="36"/>
       <c r="B11" s="71"/>
       <c r="C11" s="40"/>
@@ -5264,7 +5317,7 @@
       <c r="AE11" s="40"/>
       <c r="AF11" s="49"/>
     </row>
-    <row r="12" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="36"/>
       <c r="B12" s="71"/>
       <c r="C12" s="43"/>
@@ -5298,7 +5351,7 @@
       <c r="AE12" s="43"/>
       <c r="AF12" s="49"/>
     </row>
-    <row r="13" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="13" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="36"/>
       <c r="B13" s="71"/>
       <c r="C13" s="40"/>
@@ -5332,7 +5385,7 @@
       <c r="AE13" s="40"/>
       <c r="AF13" s="49"/>
     </row>
-    <row r="14" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="14" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="36"/>
       <c r="B14" s="71"/>
       <c r="C14" s="43"/>
@@ -5366,7 +5419,7 @@
       <c r="AE14" s="43"/>
       <c r="AF14" s="49"/>
     </row>
-    <row r="15" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="15" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="36"/>
       <c r="B15" s="71"/>
       <c r="C15" s="43"/>
@@ -5400,7 +5453,7 @@
       <c r="AE15" s="43"/>
       <c r="AF15" s="49"/>
     </row>
-    <row r="16" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="16" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="36"/>
       <c r="B16" s="71"/>
       <c r="C16" s="43"/>
@@ -5434,7 +5487,7 @@
       <c r="AE16" s="43"/>
       <c r="AF16" s="49"/>
     </row>
-    <row r="17" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="17" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="36"/>
       <c r="B17" s="42"/>
       <c r="C17" s="40"/>
@@ -5468,7 +5521,7 @@
       <c r="AE17" s="40"/>
       <c r="AF17" s="44"/>
     </row>
-    <row r="18" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="18" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="36"/>
       <c r="B18" s="42"/>
       <c r="C18" s="40"/>
@@ -5502,7 +5555,7 @@
       <c r="AE18" s="40"/>
       <c r="AF18" s="44"/>
     </row>
-    <row r="19" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="19" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="46"/>
       <c r="B19" s="39"/>
       <c r="C19" s="43"/>
@@ -5536,7 +5589,7 @@
       <c r="AE19" s="43"/>
       <c r="AF19" s="49"/>
     </row>
-    <row r="20" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="20" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="46"/>
       <c r="B20" s="39"/>
       <c r="C20" s="43"/>
@@ -5570,7 +5623,7 @@
       <c r="AE20" s="43"/>
       <c r="AF20" s="49"/>
     </row>
-    <row r="21" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="21" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="46"/>
       <c r="B21" s="39"/>
       <c r="C21" s="43"/>
@@ -5604,7 +5657,7 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="49"/>
     </row>
-    <row r="22" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="46"/>
       <c r="B22" s="39"/>
       <c r="C22" s="43"/>
@@ -5638,7 +5691,7 @@
       <c r="AE22" s="43"/>
       <c r="AF22" s="49"/>
     </row>
-    <row r="23" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="46"/>
       <c r="B23" s="39"/>
       <c r="C23" s="43"/>
@@ -5672,7 +5725,7 @@
       <c r="AE23" s="43"/>
       <c r="AF23" s="49"/>
     </row>
-    <row r="24" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="46"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43"/>
@@ -5706,7 +5759,7 @@
       <c r="AE24" s="43"/>
       <c r="AF24" s="49"/>
     </row>
-    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="73"/>
       <c r="B25" s="74"/>
       <c r="C25" s="75"/>
@@ -5740,7 +5793,7 @@
       <c r="AE25" s="75"/>
       <c r="AF25" s="79"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -5781,20 +5834,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AF26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.75" style="11"/>
+    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -5803,7 +5854,7 @@
       <c r="D1" s="34"/>
       <c r="E1" s="8"/>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -5820,7 +5871,7 @@
       </c>
       <c r="R1" s="8"/>
       <c r="S1" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
@@ -5832,7 +5883,7 @@
       </c>
       <c r="Z1" s="8"/>
       <c r="AA1" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB1" s="5"/>
       <c r="AC1" s="5"/>
@@ -5840,13 +5891,13 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="19.5" thickBot="1">
+    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -5859,7 +5910,7 @@
       </c>
       <c r="K2" s="13"/>
       <c r="L2" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M2" s="16"/>
       <c r="N2" s="16"/>
@@ -5886,8 +5937,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="21"/>
     </row>
-    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
-    <row r="4" spans="1:32">
+    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -5931,32 +5982,32 @@
       <c r="AE4" s="34"/>
       <c r="AF4" s="35"/>
     </row>
-    <row r="5" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="5" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A5" s="46">
         <v>1</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="48"/>
       <c r="F5" s="52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="47"/>
       <c r="H5" s="47"/>
       <c r="I5" s="47"/>
       <c r="J5" s="57"/>
       <c r="K5" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L5" s="43"/>
       <c r="M5" s="43"/>
       <c r="N5" s="43"/>
       <c r="O5" s="48"/>
       <c r="P5" s="39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="43"/>
       <c r="R5" s="43"/>
@@ -5975,7 +6026,7 @@
       <c r="AE5" s="43"/>
       <c r="AF5" s="49"/>
     </row>
-    <row r="6" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="6" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A6" s="61"/>
       <c r="B6" s="64"/>
       <c r="C6" s="63"/>
@@ -6011,32 +6062,32 @@
       <c r="AE6" s="63"/>
       <c r="AF6" s="67"/>
     </row>
-    <row r="7" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="7" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A7" s="46">
         <v>2</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="48"/>
       <c r="F7" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="47"/>
       <c r="H7" s="47"/>
       <c r="I7" s="47"/>
       <c r="J7" s="57"/>
       <c r="K7" s="39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L7" s="43"/>
       <c r="M7" s="43"/>
       <c r="N7" s="43"/>
       <c r="O7" s="48"/>
       <c r="P7" s="39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -6055,14 +6106,14 @@
       <c r="AE7" s="43"/>
       <c r="AF7" s="49"/>
     </row>
-    <row r="8" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="8" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A8" s="61"/>
       <c r="B8" s="64"/>
       <c r="C8" s="63"/>
       <c r="D8" s="63"/>
       <c r="E8" s="107"/>
       <c r="F8" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G8" s="65"/>
       <c r="H8" s="65"/>
@@ -6091,7 +6142,7 @@
       <c r="AE8" s="63"/>
       <c r="AF8" s="67"/>
     </row>
-    <row r="9" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="9" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A9" s="46"/>
       <c r="B9" s="39"/>
       <c r="C9" s="43"/>
@@ -6125,7 +6176,7 @@
       <c r="AE9" s="43"/>
       <c r="AF9" s="49"/>
     </row>
-    <row r="10" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="10" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A10" s="46"/>
       <c r="B10" s="39"/>
       <c r="C10" s="43"/>
@@ -6159,7 +6210,7 @@
       <c r="AE10" s="43"/>
       <c r="AF10" s="49"/>
     </row>
-    <row r="11" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="11" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A11" s="46"/>
       <c r="B11" s="39"/>
       <c r="C11" s="43"/>
@@ -6193,7 +6244,7 @@
       <c r="AE11" s="43"/>
       <c r="AF11" s="49"/>
     </row>
-    <row r="12" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="12" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A12" s="46"/>
       <c r="B12" s="39"/>
       <c r="C12" s="43"/>
@@ -6227,7 +6278,7 @@
       <c r="AE12" s="43"/>
       <c r="AF12" s="49"/>
     </row>
-    <row r="13" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="13" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A13" s="46"/>
       <c r="B13" s="39"/>
       <c r="C13" s="43"/>
@@ -6261,7 +6312,7 @@
       <c r="AE13" s="43"/>
       <c r="AF13" s="49"/>
     </row>
-    <row r="14" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="14" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A14" s="46"/>
       <c r="B14" s="39"/>
       <c r="C14" s="43"/>
@@ -6295,7 +6346,7 @@
       <c r="AE14" s="43"/>
       <c r="AF14" s="49"/>
     </row>
-    <row r="15" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="15" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A15" s="46"/>
       <c r="B15" s="39"/>
       <c r="C15" s="43"/>
@@ -6329,7 +6380,7 @@
       <c r="AE15" s="43"/>
       <c r="AF15" s="49"/>
     </row>
-    <row r="16" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="16" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A16" s="46"/>
       <c r="B16" s="39"/>
       <c r="C16" s="43"/>
@@ -6363,7 +6414,7 @@
       <c r="AE16" s="43"/>
       <c r="AF16" s="49"/>
     </row>
-    <row r="17" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="17" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A17" s="46"/>
       <c r="B17" s="39"/>
       <c r="C17" s="43"/>
@@ -6397,7 +6448,7 @@
       <c r="AE17" s="43"/>
       <c r="AF17" s="49"/>
     </row>
-    <row r="18" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="18" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A18" s="46"/>
       <c r="B18" s="39"/>
       <c r="C18" s="43"/>
@@ -6431,7 +6482,7 @@
       <c r="AE18" s="43"/>
       <c r="AF18" s="49"/>
     </row>
-    <row r="19" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="19" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A19" s="46"/>
       <c r="B19" s="39"/>
       <c r="C19" s="43"/>
@@ -6465,7 +6516,7 @@
       <c r="AE19" s="43"/>
       <c r="AF19" s="49"/>
     </row>
-    <row r="20" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="20" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A20" s="46"/>
       <c r="B20" s="39"/>
       <c r="C20" s="43"/>
@@ -6499,7 +6550,7 @@
       <c r="AE20" s="43"/>
       <c r="AF20" s="49"/>
     </row>
-    <row r="21" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="21" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A21" s="46"/>
       <c r="B21" s="39"/>
       <c r="C21" s="43"/>
@@ -6533,7 +6584,7 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="49"/>
     </row>
-    <row r="22" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="22" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A22" s="46"/>
       <c r="B22" s="39"/>
       <c r="C22" s="43"/>
@@ -6567,7 +6618,7 @@
       <c r="AE22" s="43"/>
       <c r="AF22" s="49"/>
     </row>
-    <row r="23" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="23" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A23" s="46"/>
       <c r="B23" s="39"/>
       <c r="C23" s="43"/>
@@ -6601,7 +6652,7 @@
       <c r="AE23" s="43"/>
       <c r="AF23" s="49"/>
     </row>
-    <row r="24" spans="1:32" s="45" customFormat="1" ht="15">
+    <row r="24" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
       <c r="A24" s="46"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43"/>
@@ -6635,7 +6686,7 @@
       <c r="AE24" s="43"/>
       <c r="AF24" s="49"/>
     </row>
-    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1">
+    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="73"/>
       <c r="B25" s="74"/>
       <c r="C25" s="75"/>
@@ -6669,7 +6720,7 @@
       <c r="AE25" s="75"/>
       <c r="AF25" s="79"/>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>

--- a/report/基本設計書/基本設計書_I0001_ログイン画面.xlsx
+++ b/report/基本設計書/基本設計書_I0001_ログイン画面.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dffsa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538DD8E4-C30F-4523-906E-619614F3D540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="16665" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="20" r:id="rId1"/>
@@ -21,10 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">イベント一覧!$A$1:$AG$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">修正履歴!$A$1:$AC$25</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">入力チェック一覧!$A$1:$AG$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">項目定義!$A$1:$AG$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">画面レイアウト!$A$1:$AG$24</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="97">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -545,30 +544,52 @@
     <t>login</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>項目定義</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>太寅熊</t>
+    <rPh sb="0" eb="3">
+      <t>フトシトラクマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022-03-27</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大値を変更</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -610,14 +631,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="맑은 고딕"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -627,11 +648,15 @@
       <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Meiryo"/>
       <family val="2"/>
     </font>
@@ -1095,7 +1120,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1501,31 +1526,49 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1560,7 +1603,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2972C2F6-6952-4EDB-9A2C-08331DB4A0D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1647,7 @@
         <xdr:cNvPr id="5" name="타원 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1680,7 +1723,7 @@
         <xdr:cNvPr id="6" name="타원 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1799,7 @@
         <xdr:cNvPr id="7" name="타원 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1832,7 +1875,7 @@
         <xdr:cNvPr id="8" name="타원 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1908,7 +1951,7 @@
         <xdr:cNvPr id="13" name="타원 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5461FFF1-46C2-48E3-B377-C4BCCC6EFC6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,7 +2027,7 @@
         <xdr:cNvPr id="14" name="타원 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CD2EEBB5-E1A6-417B-828C-085141B87851}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2103,7 @@
         <xdr:cNvPr id="21" name="타원 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F581701D-3D24-491B-AF1A-46F5FF7879EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2417,23 +2460,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="108"/>
+    <col min="2" max="2" width="12.75" style="108" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
+    <row r="2" spans="1:28">
       <c r="A2" s="109" t="s">
         <v>84</v>
       </c>
@@ -2473,30 +2515,30 @@
       <c r="AA2" s="112"/>
       <c r="AB2" s="114"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="115">
         <v>1</v>
       </c>
-      <c r="B3" s="137">
+      <c r="B3" s="142">
         <v>44636</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="143" t="s">
         <v>90</v>
       </c>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="141" t="s">
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="146" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140"/>
-      <c r="J3" s="139" t="s">
+      <c r="H3" s="144"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="144" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="135"/>
       <c r="N3" s="117"/>
       <c r="O3" s="117"/>
       <c r="P3" s="117"/>
@@ -2513,19 +2555,27 @@
       <c r="AA3" s="119"/>
       <c r="AB3" s="120"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="121">
         <v>2</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="116"/>
+      <c r="B4" s="147">
+        <v>44647</v>
+      </c>
+      <c r="C4" s="116" t="s">
+        <v>93</v>
+      </c>
       <c r="D4" s="117"/>
       <c r="E4" s="117"/>
       <c r="F4" s="123"/>
-      <c r="G4" s="116"/>
+      <c r="G4" s="116" t="s">
+        <v>94</v>
+      </c>
       <c r="H4" s="117"/>
       <c r="I4" s="118"/>
-      <c r="J4" s="117"/>
+      <c r="J4" s="117" t="s">
+        <v>96</v>
+      </c>
       <c r="K4" s="117"/>
       <c r="L4" s="117"/>
       <c r="M4" s="117"/>
@@ -2545,7 +2595,7 @@
       <c r="AA4" s="117"/>
       <c r="AB4" s="124"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="A5" s="115">
         <v>3</v>
       </c>
@@ -2577,7 +2627,7 @@
       <c r="AA5" s="117"/>
       <c r="AB5" s="124"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="A6" s="121">
         <v>4</v>
       </c>
@@ -2609,7 +2659,7 @@
       <c r="AA6" s="119"/>
       <c r="AB6" s="120"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="115">
         <v>5</v>
       </c>
@@ -2641,7 +2691,7 @@
       <c r="AA7" s="119"/>
       <c r="AB7" s="120"/>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="A8" s="121">
         <v>6</v>
       </c>
@@ -2673,7 +2723,7 @@
       <c r="AA8" s="117"/>
       <c r="AB8" s="124"/>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="A9" s="115">
         <v>7</v>
       </c>
@@ -2705,7 +2755,7 @@
       <c r="AA9" s="119"/>
       <c r="AB9" s="120"/>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="A10" s="121">
         <v>8</v>
       </c>
@@ -2737,7 +2787,7 @@
       <c r="AA10" s="119"/>
       <c r="AB10" s="120"/>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="A11" s="115">
         <v>9</v>
       </c>
@@ -2769,7 +2819,7 @@
       <c r="AA11" s="119"/>
       <c r="AB11" s="120"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="A12" s="121">
         <v>10</v>
       </c>
@@ -2801,7 +2851,7 @@
       <c r="AA12" s="119"/>
       <c r="AB12" s="120"/>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="A13" s="115">
         <v>11</v>
       </c>
@@ -2833,7 +2883,7 @@
       <c r="AA13" s="119"/>
       <c r="AB13" s="120"/>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="A14" s="121">
         <v>12</v>
       </c>
@@ -2865,7 +2915,7 @@
       <c r="AA14" s="119"/>
       <c r="AB14" s="120"/>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="A15" s="115">
         <v>13</v>
       </c>
@@ -2897,7 +2947,7 @@
       <c r="AA15" s="119"/>
       <c r="AB15" s="120"/>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="A16" s="121">
         <v>14</v>
       </c>
@@ -2929,7 +2979,7 @@
       <c r="AA16" s="119"/>
       <c r="AB16" s="120"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28">
       <c r="A17" s="115">
         <v>15</v>
       </c>
@@ -2961,7 +3011,7 @@
       <c r="AA17" s="119"/>
       <c r="AB17" s="120"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28">
       <c r="A18" s="121">
         <v>16</v>
       </c>
@@ -2993,7 +3043,7 @@
       <c r="AA18" s="119"/>
       <c r="AB18" s="120"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28">
       <c r="A19" s="115">
         <v>17</v>
       </c>
@@ -3025,7 +3075,7 @@
       <c r="AA19" s="119"/>
       <c r="AB19" s="120"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28">
       <c r="A20" s="115">
         <v>18</v>
       </c>
@@ -3057,7 +3107,7 @@
       <c r="AA20" s="119"/>
       <c r="AB20" s="120"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28">
       <c r="A21" s="121">
         <v>19</v>
       </c>
@@ -3089,7 +3139,7 @@
       <c r="AA21" s="119"/>
       <c r="AB21" s="120"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28">
       <c r="A22" s="115">
         <v>20</v>
       </c>
@@ -3121,7 +3171,7 @@
       <c r="AA22" s="119"/>
       <c r="AB22" s="120"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28">
       <c r="A23" s="115"/>
       <c r="B23" s="125"/>
       <c r="C23" s="126"/>
@@ -3151,7 +3201,7 @@
       <c r="AA23" s="119"/>
       <c r="AB23" s="120"/>
     </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
       <c r="A24" s="128"/>
       <c r="B24" s="129"/>
       <c r="C24" s="130"/>
@@ -3181,7 +3231,7 @@
       <c r="AA24" s="131"/>
       <c r="AB24" s="133"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28">
       <c r="B25" s="134"/>
       <c r="C25" s="134"/>
       <c r="D25" s="134"/>
@@ -3218,21 +3268,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB2" sqref="S2:AB2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3278,7 +3327,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -3307,29 +3356,29 @@
         <v>3</v>
       </c>
       <c r="R2" s="13"/>
-      <c r="S2" s="135" t="s">
+      <c r="S2" s="136" t="s">
         <v>89</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="17" t="s">
+      <c r="T2" s="137"/>
+      <c r="U2" s="137"/>
+      <c r="V2" s="137"/>
+      <c r="W2" s="137"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="13"/>
-      <c r="AA2" s="136" t="s">
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="141" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="14"/>
+      <c r="AB2" s="137"/>
       <c r="AC2" s="14"/>
       <c r="AD2" s="14"/>
       <c r="AE2" s="14"/>
       <c r="AF2" s="21"/>
     </row>
-    <row r="3" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:33" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:33">
       <c r="A4" s="22"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -3363,7 +3412,7 @@
       <c r="AE4" s="23"/>
       <c r="AF4" s="24"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:33">
       <c r="A5" s="25"/>
       <c r="B5" s="26" t="s">
         <v>17</v>
@@ -3399,7 +3448,7 @@
       <c r="AE5" s="26"/>
       <c r="AF5" s="27"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:33">
       <c r="A6" s="25"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -3433,7 +3482,7 @@
       <c r="AE6" s="26"/>
       <c r="AF6" s="27"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:33">
       <c r="A7" s="25"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -3467,7 +3516,7 @@
       <c r="AE7" s="26"/>
       <c r="AF7" s="27"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:33">
       <c r="A8" s="25"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -3501,7 +3550,7 @@
       <c r="AE8" s="26"/>
       <c r="AF8" s="27"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:33">
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -3535,7 +3584,7 @@
       <c r="AE9" s="26"/>
       <c r="AF9" s="27"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:33">
       <c r="A10" s="25"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -3569,7 +3618,7 @@
       <c r="AE10" s="26"/>
       <c r="AF10" s="27"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:33">
       <c r="A11" s="25"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -3603,7 +3652,7 @@
       <c r="AE11" s="26"/>
       <c r="AF11" s="27"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:33">
       <c r="A12" s="25"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
@@ -3637,7 +3686,7 @@
       <c r="AE12" s="26"/>
       <c r="AF12" s="27"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:33">
       <c r="A13" s="25"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -3671,7 +3720,7 @@
       <c r="AE13" s="26"/>
       <c r="AF13" s="27"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:33">
       <c r="A14" s="25"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -3705,55 +3754,55 @@
       <c r="AE14" s="26"/>
       <c r="AF14" s="27"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:33">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="26"/>
       <c r="AG15" s="25"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:33">
       <c r="A16" s="25"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
       <c r="AG16" s="25"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:33">
       <c r="A17" s="25"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
       <c r="AG17" s="25"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:33">
       <c r="A18" s="25"/>
       <c r="B18" s="26"/>
       <c r="C18" s="26"/>
       <c r="AG18" s="25"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:33">
       <c r="A19" s="25"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
       <c r="AG19" s="25"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:33">
       <c r="A20" s="25"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
       <c r="AG20" s="25"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:33">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
       <c r="AG21" s="25"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:33">
       <c r="A22" s="25"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
       <c r="AG22" s="25"/>
     </row>
-    <row r="23" spans="1:33" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" ht="19.5" thickBot="1">
       <c r="A23" s="30"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -3797,24 +3846,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF27"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.69921875" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="26" width="3.59765625" style="45"/>
+    <col min="1" max="1" width="3.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="26" width="3.625" style="45"/>
     <col min="27" max="27" width="4" style="45" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="3.59765625" style="45"/>
-    <col min="29" max="29" width="3.69921875" style="45" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="3.59765625" style="45"/>
+    <col min="28" max="28" width="3.625" style="45"/>
+    <col min="29" max="29" width="3.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="3.625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="15.75" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>43</v>
       </c>
@@ -3860,7 +3909,7 @@
       <c r="AE1" s="85"/>
       <c r="AF1" s="90"/>
     </row>
-    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A2" s="91" t="s">
         <v>7</v>
       </c>
@@ -3890,7 +3939,7 @@
       </c>
       <c r="R2" s="92"/>
       <c r="S2" s="97" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="T2" s="93"/>
       <c r="U2" s="93"/>
@@ -3902,7 +3951,7 @@
       </c>
       <c r="Z2" s="92"/>
       <c r="AA2" s="99" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="93"/>
       <c r="AC2" s="93"/>
@@ -3910,8 +3959,8 @@
       <c r="AE2" s="93"/>
       <c r="AF2" s="100"/>
     </row>
-    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="15.75" customHeight="1" thickBot="1"/>
+    <row r="4" spans="1:32" ht="15.75" customHeight="1">
       <c r="A4" s="101" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +4016,7 @@
       </c>
       <c r="AF4" s="105"/>
     </row>
-    <row r="5" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" ht="15.75" customHeight="1">
       <c r="A5" s="36">
         <v>1</v>
       </c>
@@ -4023,7 +4072,7 @@
       </c>
       <c r="AF5" s="44"/>
     </row>
-    <row r="6" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" ht="15.75" customHeight="1">
       <c r="A6" s="36">
         <v>2</v>
       </c>
@@ -4079,7 +4128,7 @@
       </c>
       <c r="AF6" s="44"/>
     </row>
-    <row r="7" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" ht="15.75" customHeight="1">
       <c r="A7" s="36">
         <v>3</v>
       </c>
@@ -4123,7 +4172,7 @@
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
       <c r="AA7" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB7" s="41"/>
       <c r="AC7" s="40" t="s">
@@ -4135,7 +4184,7 @@
       </c>
       <c r="AF7" s="44"/>
     </row>
-    <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" ht="15.75" customHeight="1">
       <c r="A8" s="46">
         <v>4</v>
       </c>
@@ -4179,7 +4228,7 @@
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
       <c r="AA8" s="42">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AB8" s="48"/>
       <c r="AC8" s="43">
@@ -4191,7 +4240,7 @@
       </c>
       <c r="AF8" s="49"/>
     </row>
-    <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" ht="15.75" customHeight="1">
       <c r="A9" s="46">
         <v>5</v>
       </c>
@@ -4247,7 +4296,7 @@
       </c>
       <c r="AF9" s="49"/>
     </row>
-    <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" ht="15.75" customHeight="1">
       <c r="A10" s="46">
         <v>6</v>
       </c>
@@ -4303,7 +4352,7 @@
       </c>
       <c r="AF10" s="49"/>
     </row>
-    <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" ht="15.75" customHeight="1">
       <c r="A11" s="46">
         <v>7</v>
       </c>
@@ -4359,7 +4408,7 @@
       </c>
       <c r="AF11" s="49"/>
     </row>
-    <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" ht="15.75" customHeight="1">
       <c r="A12" s="46"/>
       <c r="B12" s="52"/>
       <c r="C12" s="47"/>
@@ -4393,7 +4442,7 @@
       <c r="AE12" s="39"/>
       <c r="AF12" s="49"/>
     </row>
-    <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" ht="15.75" customHeight="1">
       <c r="A13" s="46"/>
       <c r="B13" s="52"/>
       <c r="C13" s="47"/>
@@ -4427,7 +4476,7 @@
       <c r="AE13" s="39"/>
       <c r="AF13" s="49"/>
     </row>
-    <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" ht="15.75" customHeight="1">
       <c r="A14" s="46"/>
       <c r="B14" s="37"/>
       <c r="C14" s="38"/>
@@ -4461,7 +4510,7 @@
       <c r="AE14" s="42"/>
       <c r="AF14" s="53"/>
     </row>
-    <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" ht="15.75" customHeight="1">
       <c r="A15" s="46"/>
       <c r="B15" s="37"/>
       <c r="C15" s="38"/>
@@ -4495,7 +4544,7 @@
       <c r="AE15" s="42"/>
       <c r="AF15" s="53"/>
     </row>
-    <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" ht="15.75" customHeight="1">
       <c r="A16" s="46"/>
       <c r="B16" s="37"/>
       <c r="C16" s="38"/>
@@ -4529,7 +4578,7 @@
       <c r="AE16" s="42"/>
       <c r="AF16" s="53"/>
     </row>
-    <row r="17" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" ht="15.75" customHeight="1">
       <c r="A17" s="46"/>
       <c r="B17" s="37"/>
       <c r="C17" s="38"/>
@@ -4563,7 +4612,7 @@
       <c r="AE17" s="42"/>
       <c r="AF17" s="53"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" ht="15.75" customHeight="1">
       <c r="A18" s="46"/>
       <c r="B18" s="37"/>
       <c r="C18" s="38"/>
@@ -4597,7 +4646,7 @@
       <c r="AE18" s="42"/>
       <c r="AF18" s="53"/>
     </row>
-    <row r="19" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" ht="15.75" customHeight="1">
       <c r="A19" s="46"/>
       <c r="B19" s="52"/>
       <c r="C19" s="47"/>
@@ -4631,7 +4680,7 @@
       <c r="AE19" s="42"/>
       <c r="AF19" s="54"/>
     </row>
-    <row r="20" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="15.75" customHeight="1">
       <c r="A20" s="46"/>
       <c r="B20" s="52"/>
       <c r="C20" s="47"/>
@@ -4665,7 +4714,7 @@
       <c r="AE20" s="42"/>
       <c r="AF20" s="54"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" ht="15.75" customHeight="1">
       <c r="A21" s="46"/>
       <c r="B21" s="52"/>
       <c r="C21" s="47"/>
@@ -4699,7 +4748,7 @@
       <c r="AE21" s="42"/>
       <c r="AF21" s="54"/>
     </row>
-    <row r="22" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" ht="15.75" customHeight="1">
       <c r="A22" s="46"/>
       <c r="B22" s="52"/>
       <c r="C22" s="47"/>
@@ -4733,7 +4782,7 @@
       <c r="AE22" s="42"/>
       <c r="AF22" s="54"/>
     </row>
-    <row r="23" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" ht="15.75" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="52"/>
       <c r="C23" s="47"/>
@@ -4767,7 +4816,7 @@
       <c r="AE23" s="42"/>
       <c r="AF23" s="54"/>
     </row>
-    <row r="24" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" ht="15.75" customHeight="1">
       <c r="A24" s="46"/>
       <c r="B24" s="52"/>
       <c r="C24" s="47"/>
@@ -4801,7 +4850,7 @@
       <c r="AE24" s="42"/>
       <c r="AF24" s="54"/>
     </row>
-    <row r="25" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:32" ht="15.75" customHeight="1">
       <c r="A25" s="46"/>
       <c r="B25" s="52"/>
       <c r="C25" s="47"/>
@@ -4835,7 +4884,7 @@
       <c r="AE25" s="42"/>
       <c r="AF25" s="54"/>
     </row>
-    <row r="26" spans="1:32" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" ht="15.75" customHeight="1" thickBot="1">
       <c r="A26" s="46"/>
       <c r="B26" s="52"/>
       <c r="C26" s="47"/>
@@ -4869,7 +4918,7 @@
       <c r="AE26" s="39"/>
       <c r="AF26" s="54"/>
     </row>
-    <row r="27" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:32" ht="15.75" customHeight="1">
       <c r="A27" s="106"/>
       <c r="B27" s="106"/>
       <c r="C27" s="106"/>
@@ -4911,18 +4960,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -4968,7 +5017,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -5014,8 +5063,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="21"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:32">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -5059,7 +5108,7 @@
       <c r="AE4" s="34"/>
       <c r="AF4" s="35"/>
     </row>
-    <row r="5" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -5103,7 +5152,7 @@
       <c r="AE5" s="43"/>
       <c r="AF5" s="49"/>
     </row>
-    <row r="6" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A6" s="46">
         <v>2</v>
       </c>
@@ -5147,7 +5196,7 @@
       <c r="AE6" s="43"/>
       <c r="AF6" s="49"/>
     </row>
-    <row r="7" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="46"/>
       <c r="B7" s="39"/>
       <c r="C7" s="43"/>
@@ -5181,7 +5230,7 @@
       <c r="AE7" s="43"/>
       <c r="AF7" s="49"/>
     </row>
-    <row r="8" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="36"/>
       <c r="B8" s="71"/>
       <c r="C8" s="40"/>
@@ -5215,7 +5264,7 @@
       <c r="AE8" s="40"/>
       <c r="AF8" s="44"/>
     </row>
-    <row r="9" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A9" s="36"/>
       <c r="B9" s="71"/>
       <c r="C9" s="40"/>
@@ -5249,7 +5298,7 @@
       <c r="AE9" s="40"/>
       <c r="AF9" s="44"/>
     </row>
-    <row r="10" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="36"/>
       <c r="B10" s="71"/>
       <c r="C10" s="40"/>
@@ -5283,7 +5332,7 @@
       <c r="AE10" s="40"/>
       <c r="AF10" s="49"/>
     </row>
-    <row r="11" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="36"/>
       <c r="B11" s="71"/>
       <c r="C11" s="40"/>
@@ -5317,7 +5366,7 @@
       <c r="AE11" s="40"/>
       <c r="AF11" s="49"/>
     </row>
-    <row r="12" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="36"/>
       <c r="B12" s="71"/>
       <c r="C12" s="43"/>
@@ -5351,7 +5400,7 @@
       <c r="AE12" s="43"/>
       <c r="AF12" s="49"/>
     </row>
-    <row r="13" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A13" s="36"/>
       <c r="B13" s="71"/>
       <c r="C13" s="40"/>
@@ -5385,7 +5434,7 @@
       <c r="AE13" s="40"/>
       <c r="AF13" s="49"/>
     </row>
-    <row r="14" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="36"/>
       <c r="B14" s="71"/>
       <c r="C14" s="43"/>
@@ -5419,7 +5468,7 @@
       <c r="AE14" s="43"/>
       <c r="AF14" s="49"/>
     </row>
-    <row r="15" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="36"/>
       <c r="B15" s="71"/>
       <c r="C15" s="43"/>
@@ -5453,7 +5502,7 @@
       <c r="AE15" s="43"/>
       <c r="AF15" s="49"/>
     </row>
-    <row r="16" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="36"/>
       <c r="B16" s="71"/>
       <c r="C16" s="43"/>
@@ -5487,7 +5536,7 @@
       <c r="AE16" s="43"/>
       <c r="AF16" s="49"/>
     </row>
-    <row r="17" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="36"/>
       <c r="B17" s="42"/>
       <c r="C17" s="40"/>
@@ -5521,7 +5570,7 @@
       <c r="AE17" s="40"/>
       <c r="AF17" s="44"/>
     </row>
-    <row r="18" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="36"/>
       <c r="B18" s="42"/>
       <c r="C18" s="40"/>
@@ -5555,7 +5604,7 @@
       <c r="AE18" s="40"/>
       <c r="AF18" s="44"/>
     </row>
-    <row r="19" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="46"/>
       <c r="B19" s="39"/>
       <c r="C19" s="43"/>
@@ -5589,7 +5638,7 @@
       <c r="AE19" s="43"/>
       <c r="AF19" s="49"/>
     </row>
-    <row r="20" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="46"/>
       <c r="B20" s="39"/>
       <c r="C20" s="43"/>
@@ -5623,7 +5672,7 @@
       <c r="AE20" s="43"/>
       <c r="AF20" s="49"/>
     </row>
-    <row r="21" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A21" s="46"/>
       <c r="B21" s="39"/>
       <c r="C21" s="43"/>
@@ -5657,7 +5706,7 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="49"/>
     </row>
-    <row r="22" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="46"/>
       <c r="B22" s="39"/>
       <c r="C22" s="43"/>
@@ -5691,7 +5740,7 @@
       <c r="AE22" s="43"/>
       <c r="AF22" s="49"/>
     </row>
-    <row r="23" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="39"/>
       <c r="C23" s="43"/>
@@ -5725,7 +5774,7 @@
       <c r="AE23" s="43"/>
       <c r="AF23" s="49"/>
     </row>
-    <row r="24" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="46"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43"/>
@@ -5759,7 +5808,7 @@
       <c r="AE24" s="43"/>
       <c r="AF24" s="49"/>
     </row>
-    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A25" s="73"/>
       <c r="B25" s="74"/>
       <c r="C25" s="75"/>
@@ -5793,7 +5842,7 @@
       <c r="AE25" s="75"/>
       <c r="AF25" s="79"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32">
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
@@ -5834,18 +5883,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="32" width="3.59765625" style="11" customWidth="1"/>
-    <col min="33" max="16384" width="3.69921875" style="11"/>
+    <col min="1" max="32" width="3.625" style="11" customWidth="1"/>
+    <col min="33" max="16384" width="3.75" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32">
       <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
@@ -5891,7 +5940,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="10"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
@@ -5937,8 +5986,8 @@
       <c r="AE2" s="14"/>
       <c r="AF2" s="21"/>
     </row>
-    <row r="3" spans="1:32" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" ht="19.5" thickBot="1"/>
+    <row r="4" spans="1:32">
       <c r="A4" s="31" t="s">
         <v>5</v>
       </c>
@@ -5982,7 +6031,7 @@
       <c r="AE4" s="34"/>
       <c r="AF4" s="35"/>
     </row>
-    <row r="5" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A5" s="46">
         <v>1</v>
       </c>
@@ -6026,7 +6075,7 @@
       <c r="AE5" s="43"/>
       <c r="AF5" s="49"/>
     </row>
-    <row r="6" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A6" s="61"/>
       <c r="B6" s="64"/>
       <c r="C6" s="63"/>
@@ -6062,7 +6111,7 @@
       <c r="AE6" s="63"/>
       <c r="AF6" s="67"/>
     </row>
-    <row r="7" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A7" s="46">
         <v>2</v>
       </c>
@@ -6106,7 +6155,7 @@
       <c r="AE7" s="43"/>
       <c r="AF7" s="49"/>
     </row>
-    <row r="8" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A8" s="61"/>
       <c r="B8" s="64"/>
       <c r="C8" s="63"/>
@@ -6142,7 +6191,7 @@
       <c r="AE8" s="63"/>
       <c r="AF8" s="67"/>
     </row>
-    <row r="9" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A9" s="46"/>
       <c r="B9" s="39"/>
       <c r="C9" s="43"/>
@@ -6176,7 +6225,7 @@
       <c r="AE9" s="43"/>
       <c r="AF9" s="49"/>
     </row>
-    <row r="10" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A10" s="46"/>
       <c r="B10" s="39"/>
       <c r="C10" s="43"/>
@@ -6210,7 +6259,7 @@
       <c r="AE10" s="43"/>
       <c r="AF10" s="49"/>
     </row>
-    <row r="11" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A11" s="46"/>
       <c r="B11" s="39"/>
       <c r="C11" s="43"/>
@@ -6244,7 +6293,7 @@
       <c r="AE11" s="43"/>
       <c r="AF11" s="49"/>
     </row>
-    <row r="12" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A12" s="46"/>
       <c r="B12" s="39"/>
       <c r="C12" s="43"/>
@@ -6278,7 +6327,7 @@
       <c r="AE12" s="43"/>
       <c r="AF12" s="49"/>
     </row>
-    <row r="13" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A13" s="46"/>
       <c r="B13" s="39"/>
       <c r="C13" s="43"/>
@@ -6312,7 +6361,7 @@
       <c r="AE13" s="43"/>
       <c r="AF13" s="49"/>
     </row>
-    <row r="14" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A14" s="46"/>
       <c r="B14" s="39"/>
       <c r="C14" s="43"/>
@@ -6346,7 +6395,7 @@
       <c r="AE14" s="43"/>
       <c r="AF14" s="49"/>
     </row>
-    <row r="15" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A15" s="46"/>
       <c r="B15" s="39"/>
       <c r="C15" s="43"/>
@@ -6380,7 +6429,7 @@
       <c r="AE15" s="43"/>
       <c r="AF15" s="49"/>
     </row>
-    <row r="16" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A16" s="46"/>
       <c r="B16" s="39"/>
       <c r="C16" s="43"/>
@@ -6414,7 +6463,7 @@
       <c r="AE16" s="43"/>
       <c r="AF16" s="49"/>
     </row>
-    <row r="17" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A17" s="46"/>
       <c r="B17" s="39"/>
       <c r="C17" s="43"/>
@@ -6448,7 +6497,7 @@
       <c r="AE17" s="43"/>
       <c r="AF17" s="49"/>
     </row>
-    <row r="18" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A18" s="46"/>
       <c r="B18" s="39"/>
       <c r="C18" s="43"/>
@@ -6482,7 +6531,7 @@
       <c r="AE18" s="43"/>
       <c r="AF18" s="49"/>
     </row>
-    <row r="19" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A19" s="46"/>
       <c r="B19" s="39"/>
       <c r="C19" s="43"/>
@@ -6516,7 +6565,7 @@
       <c r="AE19" s="43"/>
       <c r="AF19" s="49"/>
     </row>
-    <row r="20" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A20" s="46"/>
       <c r="B20" s="39"/>
       <c r="C20" s="43"/>
@@ -6550,7 +6599,7 @@
       <c r="AE20" s="43"/>
       <c r="AF20" s="49"/>
     </row>
-    <row r="21" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A21" s="46"/>
       <c r="B21" s="39"/>
       <c r="C21" s="43"/>
@@ -6584,7 +6633,7 @@
       <c r="AE21" s="43"/>
       <c r="AF21" s="49"/>
     </row>
-    <row r="22" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A22" s="46"/>
       <c r="B22" s="39"/>
       <c r="C22" s="43"/>
@@ -6618,7 +6667,7 @@
       <c r="AE22" s="43"/>
       <c r="AF22" s="49"/>
     </row>
-    <row r="23" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A23" s="46"/>
       <c r="B23" s="39"/>
       <c r="C23" s="43"/>
@@ -6652,7 +6701,7 @@
       <c r="AE23" s="43"/>
       <c r="AF23" s="49"/>
     </row>
-    <row r="24" spans="1:32" s="45" customFormat="1" ht="15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:32" s="45" customFormat="1" ht="15">
       <c r="A24" s="46"/>
       <c r="B24" s="39"/>
       <c r="C24" s="43"/>
@@ -6686,7 +6735,7 @@
       <c r="AE24" s="43"/>
       <c r="AF24" s="49"/>
     </row>
-    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" s="45" customFormat="1" ht="15.75" thickBot="1">
       <c r="A25" s="73"/>
       <c r="B25" s="74"/>
       <c r="C25" s="75"/>
@@ -6720,7 +6769,7 @@
       <c r="AE25" s="75"/>
       <c r="AF25" s="79"/>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:32">
       <c r="B26" s="80"/>
       <c r="C26" s="80"/>
       <c r="D26" s="80"/>
